--- a/Program/Other/URS會議審查紀錄/DbLayouts/L6-共同作業/CdGuarantor.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L6-共同作業/CdGuarantor.xlsx
@@ -1,29 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.10.16\St1Share(NAS)\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C82DB40-3537-4C78-8412-4C1CBCCB8C62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -250,52 +243,53 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>01 負責人
-02 負責人之配偶
-03 負責人之父母
-04 負責人之子女
-05 負責人之兄弟姐妹
-06 董事
-07 董事之配偶
-08 董事之父母
-09 董事之子女
-10 董事之兄弟姐妹
-11 股東
-12 股東之配偶
-13 股東之父母
-14 股東之子女
-15 股東之兄弟姐妹
-16 總經理
-17 總經理之配偶
-18 總經理之父母
-19 總經理之子女
-20 總經理之兄弟姐妹
-21 其他經理人或員工
-22 其他經理人或員工之配偶
-23 其他經理人或員工之父母
-24 其他經理人或員工之子女
-25 其他經理人或員工之兄弟姐妹
-26 關係企業
-27 擔任負責人之企業
-28 配偶
-29 父母
-30 子女
-31 兄弟姐妹
-32 祖父母
-33 外祖父母
-34 孫子女
-35 外孫子女
-36 配偶之父母
-37 配偶之兄弟姊妹
-38 其他親屬
-39 其他非親屬自然人</t>
+    <t xml:space="preserve">01:負責人
+02:負責人之配偶
+03:負責人之父母
+04:負責人之子女
+05:負責人之兄弟姐妹
+06:董事
+07:董事之配偶
+08:董事之父母
+09:董事之子女
+10:董事之兄弟姐妹
+11:股東
+12:股東之配偶
+13:股東之父母
+14:股東之子女
+15:股東之兄弟姐妹
+16:總經理
+17:總經理之配偶
+18:總經理之父母
+19:總經理之子女
+20:總經理之兄弟姐妹
+21:其他經理人或員工
+22:其他經理人或員工之配偶
+23:其他經理人或員工之父母
+24:其他經理人或員工之子女
+25:其他經理人或員工之兄弟姐妹
+26:關係企業
+27:擔任負責人之企業
+28:配偶
+29:父母
+30:子女
+31:兄弟姐妹
+32:祖父母
+33:外祖父母
+34:孫子女
+35:外孫子女
+36:配偶之父母
+37:配偶之兄弟姊妹
+38:其他親屬
+39:其他非親屬自然人
+</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="15">
     <font>
       <sz val="12"/>
@@ -594,8 +588,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
-    <cellStyle name="一般_CopyBook" xfId="2"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般_CopyBook" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -686,6 +680,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -721,6 +732,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -896,11 +924,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1272,7 +1300,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
